--- a/resources/STTM_v20.xlsx
+++ b/resources/STTM_v20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santoshkotagiri/Documents/git-workspace/confluent-data-ingestion/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597A99A-00B0-AB41-A8E5-9074F0C157E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC1F59B-4ADD-B444-B30D-A29A43BB4431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,7 +906,7 @@
     <t>DrivingTable</t>
   </si>
   <si>
-    <t>DMB13A_</t>
+    <t>DMB13A_1</t>
   </si>
 </sst>
 </file>
